--- a/data_year/zb/教育/各级各类学校毕业生数.xlsx
+++ b/data_year/zb/教育/各级各类学校毕业生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,556 +473,324 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1633.5</v>
+        <v>1750.4</v>
       </c>
       <c r="C2" t="n">
-        <v>1908.6</v>
+        <v>2543.0049</v>
       </c>
       <c r="D2" t="n">
-        <v>2419.2</v>
+        <v>1739.6</v>
       </c>
       <c r="E2" t="n">
-        <v>301.5</v>
+        <v>794.4</v>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>575.4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>5.9</v>
       </c>
       <c r="H2" t="n">
-        <v>176.28</v>
+        <v>231.9823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1731.5</v>
+        <v>1736.7</v>
       </c>
       <c r="C3" t="n">
-        <v>2047.44</v>
+        <v>2523.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2396.9</v>
+        <v>1662.8</v>
       </c>
       <c r="E3" t="n">
-        <v>340.5</v>
+        <v>787.7</v>
       </c>
       <c r="F3" t="n">
-        <v>103.6</v>
+        <v>608.2</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>166.5</v>
+        <v>218.9831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1903.7</v>
+        <v>1660.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2263.63</v>
+        <v>2452.3</v>
       </c>
       <c r="D4" t="n">
-        <v>2351.9</v>
+        <v>1641.6</v>
       </c>
       <c r="E4" t="n">
-        <v>383.8</v>
+        <v>791.5</v>
       </c>
       <c r="F4" t="n">
-        <v>133.7</v>
+        <v>624.7</v>
       </c>
       <c r="G4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>145.43</v>
-      </c>
+        <v>4.9</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2018.5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2453.7</v>
-      </c>
+        <v>1561.5</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>2267.9</v>
+        <v>1581.1</v>
       </c>
       <c r="E5" t="n">
-        <v>458.1</v>
+        <v>799</v>
       </c>
       <c r="F5" t="n">
-        <v>187.7</v>
+        <v>638.7</v>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>135.5</v>
-      </c>
+        <v>5.1</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2087.3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2617.4</v>
-      </c>
+        <v>1413.5</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>2135.2</v>
+        <v>1476.6</v>
       </c>
       <c r="E6" t="n">
-        <v>546.9</v>
+        <v>799.6</v>
       </c>
       <c r="F6" t="n">
-        <v>239.1</v>
+        <v>659.4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>142.5</v>
-      </c>
+        <v>4.9</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2123.4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2768.0863</v>
-      </c>
+        <v>1417.6</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>2019.5</v>
+        <v>1437.3</v>
       </c>
       <c r="E7" t="n">
-        <v>661.6</v>
+        <v>797.7</v>
       </c>
       <c r="F7" t="n">
-        <v>306.8</v>
+        <v>680.9</v>
       </c>
       <c r="G7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>169.9992</v>
-      </c>
+        <v>5.3</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2789.5</v>
-      </c>
+        <v>1423.9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>1928.5</v>
+        <v>1507.4</v>
       </c>
       <c r="E8" t="n">
-        <v>727.1</v>
+        <v>792.4</v>
       </c>
       <c r="F8" t="n">
-        <v>377.5</v>
+        <v>704.2</v>
       </c>
       <c r="G8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>179.5</v>
-      </c>
+        <v>5.9</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1963.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2745.1571</v>
-      </c>
+        <v>1397.5</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>1870.2</v>
+        <v>1565.9</v>
       </c>
       <c r="E9" t="n">
-        <v>788.3</v>
+        <v>775.7</v>
       </c>
       <c r="F9" t="n">
-        <v>447.8</v>
+        <v>735.8</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>197.7467</v>
-      </c>
+        <v>6.9</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1868</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2698.9536</v>
-      </c>
+        <v>1367.7686</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>1865</v>
+        <v>1616.4927</v>
       </c>
       <c r="E10" t="n">
-        <v>836.1</v>
+        <v>779.2443</v>
       </c>
       <c r="F10" t="n">
-        <v>511.9498</v>
+        <v>753.3087</v>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>216.6924</v>
-      </c>
+        <v>8.101699999999999</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1797.7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2618.4474</v>
-      </c>
+        <v>1454.0936</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>1805.2</v>
+        <v>1647.9006</v>
       </c>
       <c r="E11" t="n">
-        <v>823.7</v>
+        <v>789.2494</v>
       </c>
       <c r="F11" t="n">
-        <v>531.1</v>
+        <v>758.5298</v>
       </c>
       <c r="G11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>232.128</v>
-      </c>
+        <v>9.758699999999999</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1750.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2543.0049</v>
-      </c>
+        <v>1535.2918</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>1739.6</v>
+        <v>1640.3201</v>
       </c>
       <c r="E12" t="n">
-        <v>794.4</v>
+        <v>786.5315000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>575.4</v>
+        <v>797.1991</v>
       </c>
       <c r="G12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>231.9823</v>
-      </c>
+        <v>12.1411</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1736.7</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2523.2</v>
-      </c>
+        <v>1587.1485</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>1662.8</v>
+        <v>1718.0305</v>
       </c>
       <c r="E13" t="n">
-        <v>787.7</v>
+        <v>780.2267000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>608.2</v>
+        <v>826.5064</v>
       </c>
       <c r="G13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H13" t="n">
-        <v>218.9831</v>
-      </c>
+        <v>14.5899</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1660.8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2452.3</v>
-      </c>
+        <v>1623.9236</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>1641.6</v>
+        <v>1740.6127</v>
       </c>
       <c r="E14" t="n">
-        <v>791.5</v>
+        <v>824.1028</v>
       </c>
       <c r="F14" t="n">
-        <v>624.7</v>
+        <v>967.2565</v>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>15.8703</v>
       </c>
       <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1561.5</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>1581.1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>799</v>
-      </c>
-      <c r="F15" t="n">
-        <v>638.7</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1413.5</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>1476.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>799.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>659.4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1417.6</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>1437.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>797.7</v>
-      </c>
-      <c r="F17" t="n">
-        <v>680.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1423.9</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>1507.4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>792.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>704.2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1397.5</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>1565.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>775.7</v>
-      </c>
-      <c r="F19" t="n">
-        <v>735.8</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1367.8</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>1616.5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>779.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>753.3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1454.0936</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>1647.9006</v>
-      </c>
-      <c r="E21" t="n">
-        <v>789.2494</v>
-      </c>
-      <c r="F21" t="n">
-        <v>758.5298</v>
-      </c>
-      <c r="G21" t="n">
-        <v>9.758699999999999</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1535.2918</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>1640.3201</v>
-      </c>
-      <c r="E22" t="n">
-        <v>786.5315000000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>797.1991</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12.1411</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
